--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Osm-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Osm-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Osm</t>
+  </si>
+  <si>
+    <t>Lifr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Osm</t>
-  </si>
-  <si>
-    <t>Lifr</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>21.90566233333334</v>
+        <v>0.03867233333333333</v>
       </c>
       <c r="H2">
-        <v>65.716987</v>
+        <v>0.116017</v>
       </c>
       <c r="I2">
-        <v>0.9982377076397728</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9982377076397729</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.96835266666667</v>
+        <v>34.53319033333333</v>
       </c>
       <c r="N2">
-        <v>44.905058</v>
+        <v>103.599571</v>
       </c>
       <c r="O2">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="P2">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="Q2">
-        <v>327.8916792022496</v>
+        <v>1.335479047634111</v>
       </c>
       <c r="R2">
-        <v>2951.025112820246</v>
+        <v>12.019311428707</v>
       </c>
       <c r="S2">
-        <v>0.123786827499404</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="T2">
-        <v>0.123786827499404</v>
+        <v>0.2461870921144496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>21.90566233333334</v>
+        <v>0.03867233333333333</v>
       </c>
       <c r="H3">
-        <v>65.716987</v>
+        <v>0.116017</v>
       </c>
       <c r="I3">
-        <v>0.9982377076397728</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9982377076397729</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>242.324234</v>
       </c>
       <c r="O3">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="P3">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="Q3">
-        <v>1769.424281729218</v>
+        <v>3.123747850664222</v>
       </c>
       <c r="R3">
-        <v>15924.81853556296</v>
+        <v>28.113730655978</v>
       </c>
       <c r="S3">
-        <v>0.6679993187645634</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="T3">
-        <v>0.6679993187645634</v>
+        <v>0.575843103803214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>21.90566233333334</v>
+        <v>0.03867233333333333</v>
       </c>
       <c r="H4">
-        <v>65.716987</v>
+        <v>0.116017</v>
       </c>
       <c r="I4">
-        <v>0.9982377076397728</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9982377076397729</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,208 +682,22 @@
         <v>74.892616</v>
       </c>
       <c r="O4">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="P4">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823364</v>
       </c>
       <c r="Q4">
-        <v>546.8574524519992</v>
+        <v>0.9654240700524445</v>
       </c>
       <c r="R4">
-        <v>4921.717072067992</v>
+        <v>8.688816630472001</v>
       </c>
       <c r="S4">
-        <v>0.2064515613758054</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="T4">
-        <v>0.2064515613758055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.03867233333333334</v>
-      </c>
-      <c r="H5">
-        <v>0.116017</v>
-      </c>
-      <c r="I5">
-        <v>0.001762292360227098</v>
-      </c>
-      <c r="J5">
-        <v>0.001762292360227098</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>14.96835266666667</v>
-      </c>
-      <c r="N5">
-        <v>44.905058</v>
-      </c>
-      <c r="O5">
-        <v>0.1240053612000741</v>
-      </c>
-      <c r="P5">
-        <v>0.1240053612000741</v>
-      </c>
-      <c r="Q5">
-        <v>0.5788611237762222</v>
-      </c>
-      <c r="R5">
-        <v>5.209750113986</v>
-      </c>
-      <c r="S5">
-        <v>0.0002185337006700924</v>
-      </c>
-      <c r="T5">
-        <v>0.0002185337006700924</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.03867233333333334</v>
-      </c>
-      <c r="H6">
-        <v>0.116017</v>
-      </c>
-      <c r="I6">
-        <v>0.001762292360227098</v>
-      </c>
-      <c r="J6">
-        <v>0.001762292360227098</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>80.77474466666666</v>
-      </c>
-      <c r="N6">
-        <v>242.324234</v>
-      </c>
-      <c r="O6">
-        <v>0.6691786071115035</v>
-      </c>
-      <c r="P6">
-        <v>0.6691786071115035</v>
-      </c>
-      <c r="Q6">
-        <v>3.123747850664222</v>
-      </c>
-      <c r="R6">
-        <v>28.113730655978</v>
-      </c>
-      <c r="S6">
-        <v>0.001179288346940013</v>
-      </c>
-      <c r="T6">
-        <v>0.001179288346940014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.03867233333333334</v>
-      </c>
-      <c r="H7">
-        <v>0.116017</v>
-      </c>
-      <c r="I7">
-        <v>0.001762292360227098</v>
-      </c>
-      <c r="J7">
-        <v>0.001762292360227098</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>24.96420533333334</v>
-      </c>
-      <c r="N7">
-        <v>74.892616</v>
-      </c>
-      <c r="O7">
-        <v>0.2068160316884225</v>
-      </c>
-      <c r="P7">
-        <v>0.2068160316884225</v>
-      </c>
-      <c r="Q7">
-        <v>0.9654240700524446</v>
-      </c>
-      <c r="R7">
-        <v>8.688816630472001</v>
-      </c>
-      <c r="S7">
-        <v>0.0003644703126169923</v>
-      </c>
-      <c r="T7">
-        <v>0.0003644703126169924</v>
+        <v>0.1779698040823364</v>
       </c>
     </row>
   </sheetData>
